--- a/Data/4. Visual census/Biomass_Species.xlsx
+++ b/Data/4. Visual census/Biomass_Species.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\4. Visual census\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2BD82-121B-D04C-B585-A6C56B74E745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{D1CF2BFA-78D8-1149-8471-3A76F2C50420}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="33">
   <si>
     <t>Tile</t>
   </si>
@@ -107,12 +106,36 @@
   </si>
   <si>
     <t>Ambient</t>
+  </si>
+  <si>
+    <t>Padina</t>
+  </si>
+  <si>
+    <t>Jania</t>
+  </si>
+  <si>
+    <t>Flabellia</t>
+  </si>
+  <si>
+    <t>Jania+Halopteris</t>
+  </si>
+  <si>
+    <t>Acetabularia parvula</t>
+  </si>
+  <si>
+    <t>Amphiroa</t>
+  </si>
+  <si>
+    <t>Tunicata</t>
+  </si>
+  <si>
+    <t>Historic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -152,7 +175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,14 +486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D09B8D9-703C-0142-BD23-9C6200179301}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
@@ -479,7 +502,7 @@
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -525,7 +548,7 @@
         <v>1.877</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -548,7 +571,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -571,7 +594,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -594,7 +617,7 @@
         <v>1.7330000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -617,7 +640,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -640,7 +663,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -663,7 +686,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -686,7 +709,7 @@
         <v>2.9990000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -709,7 +732,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -732,7 +755,7 @@
         <v>1.165</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13</v>
       </c>
@@ -755,7 +778,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -778,7 +801,7 @@
         <v>1.712</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -801,7 +824,7 @@
         <v>1.224</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18</v>
       </c>
@@ -824,7 +847,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18</v>
       </c>
@@ -847,7 +870,7 @@
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>18</v>
       </c>
@@ -870,7 +893,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -893,7 +916,7 @@
         <v>1.845</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -916,7 +939,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -939,7 +962,7 @@
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -962,7 +985,7 @@
         <v>1.839</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -985,7 +1008,7 @@
         <v>1.8979999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1008,7 +1031,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1031,7 +1054,7 @@
         <v>3.085</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1054,7 +1077,7 @@
         <v>4.6360000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>25.646999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1100,7 +1123,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1123,7 +1146,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1146,7 +1169,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1169,7 +1192,7 @@
         <v>26.469000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>8.0449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1215,7 +1238,7 @@
         <v>1.7989999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1238,7 +1261,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1261,7 +1284,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1284,7 +1307,7 @@
         <v>141.691</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1307,7 +1330,7 @@
         <v>159.30699999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1330,7 +1353,7 @@
         <v>2.8809999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1353,7 +1376,7 @@
         <v>142.90600000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1376,7 +1399,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -1399,7 +1422,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>19</v>
       </c>
@@ -1422,7 +1445,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>19</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>1.2410000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>19</v>
       </c>
@@ -1468,7 +1491,7 @@
         <v>53.000999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>19</v>
       </c>
@@ -1491,7 +1514,7 @@
         <v>58.883000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11</v>
       </c>
@@ -1514,7 +1537,7 @@
         <v>70.054000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>11</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1560,7 +1583,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1583,7 +1606,7 @@
         <v>154.74</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>29</v>
       </c>
@@ -1606,7 +1629,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>29</v>
       </c>
@@ -1629,7 +1652,7 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>29</v>
       </c>
@@ -1652,7 +1675,7 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>29</v>
       </c>
@@ -1675,7 +1698,7 @@
         <v>116.37</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>29</v>
       </c>
@@ -1698,7 +1721,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>14</v>
       </c>
@@ -1708,8 +1731,20 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44.261000000000003</v>
+      </c>
+      <c r="F54" s="1">
+        <v>136.459</v>
+      </c>
+      <c r="G54" s="1">
+        <v>98.796999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -1718,6 +1753,726 @@
       </c>
       <c r="C55" t="s">
         <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15.154</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1">
+        <v>97.47</v>
+      </c>
+      <c r="F58" s="1">
+        <v>134.369</v>
+      </c>
+      <c r="G58" s="1">
+        <v>114.759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.143</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.488</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45.618000000000002</v>
+      </c>
+      <c r="F63" s="1">
+        <v>103.602</v>
+      </c>
+      <c r="G63" s="1">
+        <v>69.254000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/4. Visual census/Biomass_Species.xlsx
+++ b/Data/4. Visual census/Biomass_Species.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SZNHP213\OneDrive\Desktop\SZN\Jeremy project\Data\4. Visual census\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACAF2DE-5D57-1444-A7F9-A63F4259BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Scrapping" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scrapping!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -335,7 +334,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,14 +651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -672,7 +671,7 @@
     <col min="9" max="9" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -704,7 +703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -736,7 +735,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -768,7 +767,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -800,7 +799,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -832,7 +831,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -896,7 +895,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -928,7 +927,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -960,7 +959,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -992,7 +991,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1024,7 +1023,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>13</v>
       </c>
@@ -1056,7 +1055,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1088,7 +1087,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1120,7 +1119,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -1152,7 +1151,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -1184,7 +1183,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>18</v>
       </c>
@@ -1216,7 +1215,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1248,7 +1247,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -1280,7 +1279,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -1312,7 +1311,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1344,7 +1343,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -1376,7 +1375,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1408,7 +1407,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>10</v>
       </c>
@@ -1440,7 +1439,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>10</v>
       </c>
@@ -1472,7 +1471,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -1504,7 +1503,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -1536,7 +1535,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>10</v>
       </c>
@@ -1568,7 +1567,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -1600,7 +1599,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -1632,7 +1631,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -1664,7 +1663,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1696,7 +1695,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -1728,7 +1727,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1760,7 +1759,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -1824,7 +1823,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1856,7 +1855,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -1888,7 +1887,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1920,7 +1919,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>19</v>
       </c>
@@ -1952,7 +1951,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>19</v>
       </c>
@@ -1984,7 +1983,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>19</v>
       </c>
@@ -2016,7 +2015,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>19</v>
       </c>
@@ -2048,7 +2047,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>19</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>11</v>
       </c>
@@ -2112,7 +2111,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>11</v>
       </c>
@@ -2144,7 +2143,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>11</v>
       </c>
@@ -2176,7 +2175,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>11</v>
       </c>
@@ -2208,7 +2207,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>29</v>
       </c>
@@ -2240,7 +2239,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>29</v>
       </c>
@@ -2272,7 +2271,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>29</v>
       </c>
@@ -2304,7 +2303,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>29</v>
       </c>
@@ -2336,7 +2335,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>29</v>
       </c>
@@ -2368,7 +2367,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>14</v>
       </c>
@@ -2400,7 +2399,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>14</v>
       </c>
@@ -2432,7 +2431,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>14</v>
       </c>
@@ -2464,7 +2463,7 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>14</v>
       </c>
@@ -2496,7 +2495,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>14</v>
       </c>
@@ -2528,7 +2527,7 @@
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>12</v>
       </c>
@@ -2560,7 +2559,7 @@
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>12</v>
       </c>
@@ -2592,7 +2591,7 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>12</v>
       </c>
@@ -2624,7 +2623,7 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>12</v>
       </c>
@@ -2656,7 +2655,7 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>12</v>
       </c>
@@ -2688,7 +2687,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>12</v>
       </c>
@@ -2720,7 +2719,7 @@
       </c>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>28</v>
       </c>
@@ -2752,7 +2751,7 @@
       </c>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>28</v>
       </c>
@@ -2784,7 +2783,7 @@
       </c>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>28</v>
       </c>
@@ -2816,7 +2815,7 @@
       </c>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>28</v>
       </c>
@@ -2848,7 +2847,7 @@
       </c>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>28</v>
       </c>
@@ -2880,7 +2879,7 @@
       </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>28</v>
       </c>
@@ -2912,7 +2911,7 @@
       </c>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>28</v>
       </c>
@@ -2944,7 +2943,7 @@
       </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>28</v>
       </c>
@@ -2976,7 +2975,7 @@
       </c>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>28</v>
       </c>
@@ -3008,7 +3007,7 @@
       </c>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>28</v>
       </c>
@@ -3040,7 +3039,7 @@
       </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>28</v>
       </c>
@@ -3072,7 +3071,7 @@
       </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>28</v>
       </c>
@@ -3104,7 +3103,7 @@
       </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>28</v>
       </c>
@@ -3136,7 +3135,7 @@
       </c>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>8</v>
       </c>
@@ -3168,7 +3167,7 @@
       </c>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>8</v>
       </c>
@@ -3200,7 +3199,7 @@
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>8</v>
       </c>
@@ -3232,7 +3231,7 @@
       </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>8</v>
       </c>
@@ -3264,7 +3263,7 @@
       </c>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>8</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>8</v>
       </c>
@@ -3330,7 +3329,7 @@
       </c>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>8</v>
       </c>
@@ -3362,7 +3361,7 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>8</v>
       </c>
@@ -3394,7 +3393,7 @@
       </c>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>8</v>
       </c>
@@ -3426,7 +3425,7 @@
       </c>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>8</v>
       </c>
@@ -3458,7 +3457,7 @@
       </c>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>7</v>
       </c>
@@ -3490,7 +3489,7 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>7</v>
       </c>
@@ -3522,7 +3521,7 @@
       </c>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>7</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>7</v>
       </c>
@@ -3588,7 +3587,7 @@
       </c>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>7</v>
       </c>
@@ -3620,7 +3619,7 @@
       </c>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -3652,7 +3651,7 @@
       </c>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>4</v>
       </c>
@@ -3684,7 +3683,7 @@
       </c>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>4</v>
       </c>
@@ -3716,7 +3715,7 @@
       </c>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>4</v>
       </c>
@@ -3748,7 +3747,7 @@
       </c>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>4</v>
       </c>
@@ -3780,7 +3779,7 @@
       </c>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>4</v>
       </c>
@@ -3812,7 +3811,7 @@
       </c>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>4</v>
       </c>
@@ -3844,7 +3843,7 @@
       </c>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3908,7 +3907,7 @@
       </c>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3940,7 +3939,7 @@
       </c>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -3972,7 +3971,7 @@
       </c>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -4004,7 +4003,7 @@
       </c>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -4036,7 +4035,7 @@
       </c>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -4068,7 +4067,7 @@
       </c>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -4100,7 +4099,7 @@
       </c>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -4132,7 +4131,7 @@
       </c>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -4164,7 +4163,7 @@
       </c>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -4196,7 +4195,7 @@
       </c>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -4228,7 +4227,7 @@
       </c>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -4260,7 +4259,7 @@
       </c>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>2</v>
       </c>
@@ -4292,7 +4291,7 @@
       </c>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>2</v>
       </c>
@@ -4324,7 +4323,7 @@
       </c>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>2</v>
       </c>
@@ -4356,7 +4355,7 @@
       </c>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>2</v>
       </c>
@@ -4388,7 +4387,7 @@
       </c>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>2</v>
       </c>
@@ -4420,7 +4419,7 @@
       </c>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>2</v>
       </c>
@@ -4452,7 +4451,7 @@
       </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>2</v>
       </c>
@@ -4484,7 +4483,7 @@
       </c>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>2</v>
       </c>
@@ -4516,7 +4515,7 @@
       </c>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>2</v>
       </c>
@@ -4548,7 +4547,7 @@
       </c>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -4580,7 +4579,7 @@
       </c>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>1</v>
       </c>
@@ -4612,7 +4611,7 @@
       </c>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>1</v>
       </c>
@@ -4676,7 +4675,7 @@
       </c>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>1</v>
       </c>
@@ -4708,7 +4707,7 @@
       </c>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>1</v>
       </c>
@@ -4740,7 +4739,7 @@
       </c>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>1</v>
       </c>
@@ -4772,7 +4771,7 @@
       </c>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -4804,7 +4803,7 @@
       </c>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>1</v>
       </c>
@@ -4836,7 +4835,7 @@
       </c>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4868,7 +4867,7 @@
       </c>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -4900,7 +4899,7 @@
       </c>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>1</v>
       </c>
@@ -4932,7 +4931,7 @@
       </c>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>1</v>
       </c>
@@ -4964,7 +4963,7 @@
       </c>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>7</v>
       </c>
@@ -4996,7 +4995,7 @@
       </c>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>7</v>
       </c>
@@ -5028,7 +5027,7 @@
       </c>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>7</v>
       </c>
@@ -5060,7 +5059,7 @@
       </c>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>7</v>
       </c>
@@ -5092,7 +5091,7 @@
       </c>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>7</v>
       </c>
@@ -5124,7 +5123,7 @@
       </c>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>7</v>
       </c>
@@ -5156,7 +5155,7 @@
       </c>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>7</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>7</v>
       </c>
@@ -5222,7 +5221,7 @@
       </c>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>5</v>
       </c>
@@ -5254,7 +5253,7 @@
       </c>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>5</v>
       </c>
@@ -5286,7 +5285,7 @@
       </c>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>5</v>
       </c>
@@ -5318,7 +5317,7 @@
       </c>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>5</v>
       </c>
@@ -5350,7 +5349,7 @@
       </c>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>5</v>
       </c>
@@ -5382,7 +5381,7 @@
       </c>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>5</v>
       </c>
@@ -5414,7 +5413,7 @@
       </c>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>5</v>
       </c>
@@ -5446,7 +5445,7 @@
       </c>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>5</v>
       </c>
@@ -5478,7 +5477,7 @@
       </c>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -5510,7 +5509,7 @@
       </c>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>8</v>
       </c>
@@ -5542,7 +5541,7 @@
       </c>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5574,7 +5573,7 @@
       </c>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>8</v>
       </c>
@@ -5606,7 +5605,7 @@
       </c>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>8</v>
       </c>
@@ -5638,7 +5637,7 @@
       </c>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>6</v>
       </c>
@@ -5670,7 +5669,7 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>6</v>
       </c>
@@ -5702,7 +5701,7 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>6</v>
       </c>
@@ -5734,7 +5733,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>6</v>
       </c>
@@ -5766,7 +5765,7 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>6</v>
       </c>
@@ -5798,7 +5797,7 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>6</v>
       </c>
@@ -5830,7 +5829,7 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>6</v>
       </c>
@@ -5862,7 +5861,7 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -5894,7 +5893,7 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>6</v>
       </c>
@@ -5926,7 +5925,7 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>6</v>
       </c>
@@ -5958,7 +5957,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>6</v>
       </c>
@@ -5990,7 +5989,7 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>6</v>
       </c>
@@ -6022,7 +6021,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -6045,16 +6044,16 @@
         <v>3.6549999999999998</v>
       </c>
       <c r="H168" s="13">
-        <f t="shared" ref="H168:H177" si="10">F168-E168</f>
+        <f t="shared" ref="H168:H176" si="10">F168-E168</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="I168" s="13">
-        <f t="shared" ref="I168:I177" si="11">G168-E168</f>
+        <f t="shared" ref="I168:I176" si="11">G168-E168</f>
         <v>1.9909999999999999</v>
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -6086,7 +6085,7 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -6118,7 +6117,7 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -6150,7 +6149,7 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -6182,7 +6181,7 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -6214,7 +6213,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -6280,7 +6279,7 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -6312,7 +6311,7 @@
       </c>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -6344,7 +6343,7 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>2</v>
       </c>
@@ -6376,7 +6375,7 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>2</v>
       </c>
@@ -6408,7 +6407,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>2</v>
       </c>
@@ -6440,7 +6439,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>2</v>
       </c>
@@ -6472,7 +6471,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>2</v>
       </c>
@@ -6504,7 +6503,7 @@
       </c>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>2</v>
       </c>
@@ -6536,7 +6535,7 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>2</v>
       </c>
@@ -6568,7 +6567,7 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>2</v>
       </c>
@@ -6600,7 +6599,7 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>2</v>
       </c>
@@ -6632,7 +6631,7 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>3</v>
       </c>
@@ -6651,18 +6650,20 @@
       <c r="F187" s="8">
         <v>7.8449999999999998</v>
       </c>
-      <c r="G187" s="8"/>
+      <c r="G187" s="8">
+        <v>1.974</v>
+      </c>
       <c r="H187" s="13">
-        <f t="shared" ref="H178:H213" si="14">F187-E187</f>
+        <f t="shared" ref="H187:H213" si="14">F187-E187</f>
         <v>7.0649999999999995</v>
       </c>
       <c r="I187" s="13">
-        <f t="shared" ref="I178:I213" si="15">G187-E187</f>
-        <v>-0.78</v>
+        <f t="shared" ref="I187:I213" si="15">G187-E187</f>
+        <v>1.194</v>
       </c>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -6681,18 +6682,20 @@
       <c r="F188" s="8">
         <v>0.746</v>
       </c>
-      <c r="G188" s="8"/>
+      <c r="G188" s="8">
+        <v>0.68500000000000005</v>
+      </c>
       <c r="H188" s="13">
         <f t="shared" si="14"/>
         <v>9.5999999999999974E-2</v>
       </c>
       <c r="I188" s="13">
         <f t="shared" si="15"/>
-        <v>-0.65</v>
+        <v>3.5000000000000031E-2</v>
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>3</v>
       </c>
@@ -6711,18 +6714,20 @@
       <c r="F189" s="8">
         <v>8.907</v>
       </c>
-      <c r="G189" s="8"/>
+      <c r="G189" s="8">
+        <v>3.8290000000000002</v>
+      </c>
       <c r="H189" s="13">
         <f t="shared" si="14"/>
         <v>8.3569999999999993</v>
       </c>
       <c r="I189" s="13">
         <f t="shared" si="15"/>
-        <v>-0.55000000000000004</v>
+        <v>3.2789999999999999</v>
       </c>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>3</v>
       </c>
@@ -6741,18 +6746,20 @@
       <c r="F190" s="8">
         <v>12.182</v>
       </c>
-      <c r="G190" s="8"/>
+      <c r="G190" s="8">
+        <v>2.512</v>
+      </c>
       <c r="H190" s="13">
         <f t="shared" si="14"/>
         <v>11.622</v>
       </c>
       <c r="I190" s="13">
         <f t="shared" si="15"/>
-        <v>-0.56000000000000005</v>
+        <v>1.952</v>
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>3</v>
       </c>
@@ -6771,18 +6778,20 @@
       <c r="F191" s="8">
         <v>2.3410000000000002</v>
       </c>
-      <c r="G191" s="8"/>
+      <c r="G191" s="8">
+        <v>1.1870000000000001</v>
+      </c>
       <c r="H191" s="13">
         <f t="shared" si="14"/>
         <v>1.4710000000000001</v>
       </c>
       <c r="I191" s="13">
         <f t="shared" si="15"/>
-        <v>-0.87</v>
+        <v>0.31700000000000006</v>
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>3</v>
       </c>
@@ -6801,18 +6810,20 @@
       <c r="F192" s="8">
         <v>92.066000000000003</v>
       </c>
-      <c r="G192" s="8"/>
+      <c r="G192" s="8">
+        <v>79.316000000000003</v>
+      </c>
       <c r="H192" s="13">
         <f t="shared" si="14"/>
         <v>26.195999999999998</v>
       </c>
       <c r="I192" s="13">
         <f t="shared" si="15"/>
-        <v>-65.87</v>
+        <v>13.445999999999998</v>
       </c>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>3</v>
       </c>
@@ -6831,18 +6842,20 @@
       <c r="F193" s="8">
         <v>0.41699999999999998</v>
       </c>
-      <c r="G193" s="8"/>
+      <c r="G193" s="8">
+        <v>0.35399999999999998</v>
+      </c>
       <c r="H193" s="13">
         <f t="shared" si="14"/>
         <v>7.6999999999999957E-2</v>
       </c>
       <c r="I193" s="13">
         <f t="shared" si="15"/>
-        <v>-0.34</v>
+        <v>1.3999999999999957E-2</v>
       </c>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>3</v>
       </c>
@@ -6861,18 +6874,20 @@
       <c r="F194" s="8">
         <v>4.3739999999999997</v>
       </c>
-      <c r="G194" s="8"/>
+      <c r="G194" s="8">
+        <v>2.964</v>
+      </c>
       <c r="H194" s="13">
         <f t="shared" si="14"/>
         <v>3.6739999999999995</v>
       </c>
       <c r="I194" s="13">
         <f t="shared" si="15"/>
-        <v>-0.7</v>
+        <v>2.2640000000000002</v>
       </c>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>3</v>
       </c>
@@ -6891,18 +6906,20 @@
       <c r="F195" s="8">
         <v>2.0009999999999999</v>
       </c>
-      <c r="G195" s="8"/>
+      <c r="G195" s="8">
+        <v>1.345</v>
+      </c>
       <c r="H195" s="13">
         <f t="shared" si="14"/>
         <v>1.0509999999999999</v>
       </c>
       <c r="I195" s="13">
         <f t="shared" si="15"/>
-        <v>-0.95</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>3</v>
       </c>
@@ -6921,18 +6938,20 @@
       <c r="F196" s="8">
         <v>80.968000000000004</v>
       </c>
-      <c r="G196" s="8"/>
+      <c r="G196" s="8">
+        <v>57.978000000000002</v>
+      </c>
       <c r="H196" s="13">
         <f t="shared" si="14"/>
         <v>35.368000000000002</v>
       </c>
       <c r="I196" s="13">
         <f t="shared" si="15"/>
-        <v>-45.6</v>
+        <v>12.378</v>
       </c>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>4</v>
       </c>
@@ -6951,18 +6970,20 @@
       <c r="F197" s="8">
         <v>4.2640000000000002</v>
       </c>
-      <c r="G197" s="8"/>
+      <c r="G197" s="8">
+        <v>2.359</v>
+      </c>
       <c r="H197" s="13">
         <f t="shared" si="14"/>
         <v>3.4340000000000002</v>
       </c>
       <c r="I197" s="13">
         <f t="shared" si="15"/>
-        <v>-0.83</v>
+        <v>1.5289999999999999</v>
       </c>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>4</v>
       </c>
@@ -6981,18 +7002,20 @@
       <c r="F198" s="8">
         <v>1.4890000000000001</v>
       </c>
-      <c r="G198" s="8"/>
+      <c r="G198" s="8">
+        <v>1.1419999999999999</v>
+      </c>
       <c r="H198" s="13">
         <f t="shared" si="14"/>
         <v>0.40900000000000003</v>
       </c>
       <c r="I198" s="13">
         <f t="shared" si="15"/>
-        <v>-1.08</v>
+        <v>6.1999999999999833E-2</v>
       </c>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>4</v>
       </c>
@@ -7011,18 +7034,20 @@
       <c r="F199" s="8">
         <v>2.8159999999999998</v>
       </c>
-      <c r="G199" s="8"/>
+      <c r="G199" s="8">
+        <v>1.181</v>
+      </c>
       <c r="H199" s="13">
         <f t="shared" si="14"/>
         <v>2.016</v>
       </c>
       <c r="I199" s="13">
         <f t="shared" si="15"/>
-        <v>-0.8</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>4</v>
       </c>
@@ -7041,18 +7066,20 @@
       <c r="F200" s="8">
         <v>35.718000000000004</v>
       </c>
-      <c r="G200" s="8"/>
+      <c r="G200" s="8">
+        <v>13.44</v>
+      </c>
       <c r="H200" s="13">
         <f t="shared" si="14"/>
         <v>35.148000000000003</v>
       </c>
       <c r="I200" s="13">
         <f t="shared" si="15"/>
-        <v>-0.56999999999999995</v>
+        <v>12.87</v>
       </c>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>4</v>
       </c>
@@ -7071,18 +7098,20 @@
       <c r="F201" s="8">
         <v>3.6659999999999999</v>
       </c>
-      <c r="G201" s="8"/>
+      <c r="G201" s="8">
+        <v>1.4039999999999999</v>
+      </c>
       <c r="H201" s="13">
         <f t="shared" si="14"/>
         <v>2.556</v>
       </c>
       <c r="I201" s="13">
         <f t="shared" si="15"/>
-        <v>-1.1100000000000001</v>
+        <v>0.29399999999999982</v>
       </c>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>4</v>
       </c>
@@ -7101,18 +7130,20 @@
       <c r="F202" s="8">
         <v>2.1339999999999999</v>
       </c>
-      <c r="G202" s="8"/>
+      <c r="G202" s="8">
+        <v>0.94699999999999995</v>
+      </c>
       <c r="H202" s="13">
         <f t="shared" si="14"/>
         <v>1.3639999999999999</v>
       </c>
       <c r="I202" s="13">
         <f t="shared" si="15"/>
-        <v>-0.77</v>
+        <v>0.17699999999999994</v>
       </c>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>4</v>
       </c>
@@ -7131,18 +7162,20 @@
       <c r="F203" s="8">
         <v>1.512</v>
       </c>
-      <c r="G203" s="8"/>
+      <c r="G203" s="8">
+        <v>1.1060000000000001</v>
+      </c>
       <c r="H203" s="13">
         <f t="shared" si="14"/>
         <v>0.502</v>
       </c>
       <c r="I203" s="13">
         <f t="shared" si="15"/>
-        <v>-1.01</v>
+        <v>9.6000000000000085E-2</v>
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>4</v>
       </c>
@@ -7161,18 +7194,20 @@
       <c r="F204" s="8">
         <v>48.771000000000001</v>
       </c>
-      <c r="G204" s="8"/>
+      <c r="G204" s="8">
+        <v>43.758000000000003</v>
+      </c>
       <c r="H204" s="13">
         <f t="shared" si="14"/>
         <v>8.8909999999999982</v>
       </c>
       <c r="I204" s="13">
         <f t="shared" si="15"/>
-        <v>-39.880000000000003</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>5</v>
       </c>
@@ -7191,18 +7226,20 @@
       <c r="F205" s="8">
         <v>1.65</v>
       </c>
-      <c r="G205" s="8"/>
+      <c r="G205" s="8">
+        <v>1.3879999999999999</v>
+      </c>
       <c r="H205" s="13">
         <f t="shared" si="14"/>
         <v>0.28999999999999981</v>
       </c>
       <c r="I205" s="13">
         <f t="shared" si="15"/>
-        <v>-1.36</v>
+        <v>2.7999999999999803E-2</v>
       </c>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>5</v>
       </c>
@@ -7221,18 +7258,20 @@
       <c r="F206" s="8">
         <v>151.19999999999999</v>
       </c>
-      <c r="G206" s="8"/>
+      <c r="G206" s="8">
+        <v>96.406999999999996</v>
+      </c>
       <c r="H206" s="13">
         <f t="shared" si="14"/>
         <v>107.04999999999998</v>
       </c>
       <c r="I206" s="13">
         <f t="shared" si="15"/>
-        <v>-44.15</v>
+        <v>52.256999999999998</v>
       </c>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>5</v>
       </c>
@@ -7251,18 +7290,20 @@
       <c r="F207" s="8">
         <v>1.3</v>
       </c>
-      <c r="G207" s="8"/>
+      <c r="G207" s="8">
+        <v>1.137</v>
+      </c>
       <c r="H207" s="13">
         <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I207" s="13">
         <f t="shared" si="15"/>
-        <v>-1</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>5</v>
       </c>
@@ -7281,18 +7322,20 @@
       <c r="F208" s="8">
         <v>3.75</v>
       </c>
-      <c r="G208" s="8"/>
+      <c r="G208" s="8">
+        <v>1.631</v>
+      </c>
       <c r="H208" s="13">
         <f t="shared" si="14"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="I208" s="13">
         <f t="shared" si="15"/>
-        <v>-1.07</v>
+        <v>0.56099999999999994</v>
       </c>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>5</v>
       </c>
@@ -7311,18 +7354,20 @@
       <c r="F209" s="8">
         <v>3.95</v>
       </c>
-      <c r="G209" s="8"/>
+      <c r="G209" s="8">
+        <v>1.337</v>
+      </c>
       <c r="H209" s="13">
         <f t="shared" si="14"/>
         <v>3.0100000000000002</v>
       </c>
       <c r="I209" s="13">
         <f t="shared" si="15"/>
-        <v>-0.94</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>5</v>
       </c>
@@ -7341,18 +7386,20 @@
       <c r="F210" s="8">
         <v>3.54</v>
       </c>
-      <c r="G210" s="8"/>
+      <c r="G210" s="8">
+        <v>0.95299999999999996</v>
+      </c>
       <c r="H210" s="13">
         <f t="shared" si="14"/>
         <v>3.01</v>
       </c>
       <c r="I210" s="13">
         <f t="shared" si="15"/>
-        <v>-0.53</v>
+        <v>0.42299999999999993</v>
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>5</v>
       </c>
@@ -7371,18 +7418,20 @@
       <c r="F211" s="8">
         <v>25.62</v>
       </c>
-      <c r="G211" s="8"/>
+      <c r="G211" s="8">
+        <v>9.7379999999999995</v>
+      </c>
       <c r="H211" s="13">
         <f t="shared" si="14"/>
         <v>24.880000000000003</v>
       </c>
       <c r="I211" s="13">
         <f t="shared" si="15"/>
-        <v>-0.74</v>
+        <v>8.9979999999999993</v>
       </c>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>5</v>
       </c>
@@ -7401,18 +7450,20 @@
       <c r="F212" s="8">
         <v>0.97</v>
       </c>
-      <c r="G212" s="8"/>
+      <c r="G212" s="8">
+        <v>0.78700000000000003</v>
+      </c>
       <c r="H212" s="13">
         <f t="shared" si="14"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="I212" s="13">
         <f t="shared" si="15"/>
-        <v>-0.76</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>5</v>
       </c>
@@ -7431,18 +7482,20 @@
       <c r="F213" s="8">
         <v>10.36</v>
       </c>
-      <c r="G213" s="8"/>
+      <c r="G213" s="8">
+        <v>6.9539999999999997</v>
+      </c>
       <c r="H213" s="13">
         <f t="shared" si="14"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="I213" s="13">
         <f t="shared" si="15"/>
-        <v>-0.83</v>
+        <v>6.1239999999999997</v>
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>6</v>
       </c>
@@ -7461,20 +7514,22 @@
       <c r="F214" s="7">
         <v>5.7</v>
       </c>
-      <c r="G214" s="7"/>
+      <c r="G214" s="7">
+        <v>1.095</v>
+      </c>
       <c r="H214" s="12">
         <f t="shared" ref="H214" si="16">F214-E214</f>
         <v>5.23</v>
       </c>
       <c r="I214" s="12">
         <f t="shared" ref="I214" si="17">G214-E214</f>
-        <v>-0.47</v>
+        <v>0.625</v>
       </c>
       <c r="J214" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>6</v>
       </c>
@@ -7493,18 +7548,20 @@
       <c r="F215" s="7">
         <v>84.33</v>
       </c>
-      <c r="G215" s="7"/>
+      <c r="G215" s="7">
+        <v>63.177999999999997</v>
+      </c>
       <c r="H215" s="12">
         <f t="shared" ref="H215:H225" si="18">F215-E215</f>
         <v>39.989999999999995</v>
       </c>
       <c r="I215" s="12">
         <f t="shared" ref="I215:I225" si="19">G215-E215</f>
-        <v>-44.34</v>
+        <v>18.837999999999994</v>
       </c>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>6</v>
       </c>
@@ -7523,18 +7580,20 @@
       <c r="F216" s="7">
         <v>0.32</v>
       </c>
-      <c r="G216" s="7"/>
+      <c r="G216" s="7">
+        <v>0.24099999999999999</v>
+      </c>
       <c r="H216" s="12">
         <f t="shared" si="18"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="I216" s="12">
         <f t="shared" si="19"/>
-        <v>-0.24</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="J216" s="3"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>5</v>
       </c>
@@ -7553,20 +7612,22 @@
       <c r="F217" s="7">
         <v>10.119999999999999</v>
       </c>
-      <c r="G217" s="7"/>
+      <c r="G217" s="7">
+        <v>2.246</v>
+      </c>
       <c r="H217" s="12">
         <f t="shared" si="18"/>
         <v>9.1499999999999986</v>
       </c>
       <c r="I217" s="12">
         <f t="shared" si="19"/>
-        <v>-0.97</v>
+        <v>1.276</v>
       </c>
       <c r="J217" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>5</v>
       </c>
@@ -7580,23 +7641,25 @@
         <v>10</v>
       </c>
       <c r="E218" s="7">
-        <v>59.41</v>
+        <v>44.41</v>
       </c>
       <c r="F218" s="7">
         <v>88.43</v>
       </c>
-      <c r="G218" s="7"/>
+      <c r="G218" s="7">
+        <v>49.292000000000002</v>
+      </c>
       <c r="H218" s="12">
         <f t="shared" si="18"/>
-        <v>29.02000000000001</v>
+        <v>44.02000000000001</v>
       </c>
       <c r="I218" s="12">
         <f t="shared" si="19"/>
-        <v>-59.41</v>
+        <v>4.882000000000005</v>
       </c>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>5</v>
       </c>
@@ -7615,20 +7678,22 @@
       <c r="F219" s="7">
         <v>5</v>
       </c>
-      <c r="G219" s="7"/>
+      <c r="G219" s="7">
+        <v>2.1640000000000001</v>
+      </c>
       <c r="H219" s="12">
         <f t="shared" si="18"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="I219" s="12">
         <f t="shared" si="19"/>
-        <v>-0.77</v>
+        <v>1.3940000000000001</v>
       </c>
       <c r="J219" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>4</v>
       </c>
@@ -7647,18 +7712,20 @@
       <c r="F220" s="7">
         <v>110.4</v>
       </c>
-      <c r="G220" s="7"/>
+      <c r="G220" s="7">
+        <v>76.135000000000005</v>
+      </c>
       <c r="H220" s="12">
         <f t="shared" si="18"/>
         <v>38.740000000000009</v>
       </c>
       <c r="I220" s="12">
         <f t="shared" si="19"/>
-        <v>-71.66</v>
+        <v>4.4750000000000085</v>
       </c>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>3</v>
       </c>
@@ -7677,18 +7744,20 @@
       <c r="F221" s="7">
         <v>6.59</v>
       </c>
-      <c r="G221" s="7"/>
+      <c r="G221" s="7">
+        <v>1.625</v>
+      </c>
       <c r="H221" s="12">
         <f t="shared" si="18"/>
         <v>5.8</v>
       </c>
       <c r="I221" s="12">
         <f t="shared" si="19"/>
-        <v>-0.79</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="J221" s="3"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>3</v>
       </c>
@@ -7707,18 +7776,20 @@
       <c r="F222" s="7">
         <v>0.66</v>
       </c>
-      <c r="G222" s="7"/>
+      <c r="G222" s="7">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="H222" s="12">
         <f t="shared" si="18"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="I222" s="12">
         <f t="shared" si="19"/>
-        <v>-0.44</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>2</v>
       </c>
@@ -7737,18 +7808,20 @@
       <c r="F223" s="7">
         <v>3.87</v>
       </c>
-      <c r="G223" s="7"/>
+      <c r="G223" s="7">
+        <v>5.71</v>
+      </c>
       <c r="H223" s="12">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="I223" s="12">
         <f t="shared" si="19"/>
-        <v>-0.87</v>
+        <v>4.84</v>
       </c>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -7767,18 +7840,20 @@
       <c r="F224" s="7">
         <v>28.66</v>
       </c>
-      <c r="G224" s="7"/>
+      <c r="G224" s="7">
+        <v>4.6539999999999999</v>
+      </c>
       <c r="H224" s="12">
         <f t="shared" si="18"/>
         <v>27.59</v>
       </c>
       <c r="I224" s="12">
         <f t="shared" si="19"/>
-        <v>-1.07</v>
+        <v>3.5839999999999996</v>
       </c>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>1</v>
       </c>
@@ -7797,19 +7872,21 @@
       <c r="F225" s="7">
         <v>0.83</v>
       </c>
-      <c r="G225" s="7"/>
+      <c r="G225" s="7">
+        <v>0.42899999999999999</v>
+      </c>
       <c r="H225" s="12">
         <f t="shared" si="18"/>
         <v>0.42999999999999994</v>
       </c>
       <c r="I225" s="12">
         <f t="shared" si="19"/>
-        <v>-0.4</v>
+        <v>2.899999999999997E-2</v>
       </c>
       <c r="J225" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>